--- a/needAdjustOK.xlsx
+++ b/needAdjustOK.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -395,88 +395,36 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>80656113</v>
+      <c r="A2" t="str">
+        <v>85CAFE1030001747</v>
       </c>
       <c r="B2" t="str">
-        <v>崇奕系統工程股份有限公司</v>
+        <v>85度C  南科群創店</v>
       </c>
       <c r="C2" t="str">
-        <v>新竹縣寶山鄉明湖五街6巷7號</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
+        <v>台南市新市市環西路一段3號</v>
+      </c>
+      <c r="D2" t="str">
+        <v>台南</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>80656113台中</v>
+        <v>77777</v>
       </c>
       <c r="B3" t="str">
-        <v>崇奕  台積電 中科廠</v>
+        <v>鋼鐵韓粉</v>
       </c>
       <c r="C3" t="str">
-        <v>中部科學園區科雅六路1號</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>85CAFE001</v>
-      </c>
-      <c r="B4" t="str">
-        <v>85度C-IDC機房</v>
-      </c>
-      <c r="C4" t="str">
-        <v>台北市內湖區瑞光路498號4F</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>85CAFE1030001747</v>
-      </c>
-      <c r="B5" t="str">
-        <v>85度C  南科群創店</v>
-      </c>
-      <c r="C5" t="str">
-        <v>台南市新市市環西路一段3號</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>85CAFE222222</v>
-      </c>
-      <c r="B6" t="str">
-        <v>85度C 測試店</v>
-      </c>
-      <c r="C6" t="str">
-        <v>台中市南屯區工業23路35號</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>1907504</v>
-      </c>
-      <c r="B7" t="str">
-        <v>孔令傑</v>
-      </c>
-      <c r="C7" t="str">
-        <v>新北市板橋區小七</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>77777</v>
-      </c>
-      <c r="B8" t="str">
-        <v>鋼鐵韓粉</v>
-      </c>
-      <c r="C8" t="str">
         <v>雲林縣斗六夜市</v>
+      </c>
+      <c r="D3" t="str">
+        <v>嘉義</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>